--- a/data/hotels_by_city/Houston/Houston_shard_521.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_521.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d107451-Reviews-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn.h58626.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531446478958&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=df6242d9-07ec-4891-8ea0-dcff4a807e4a&amp;mctc=9&amp;exp_dp=68&amp;exp_ts=1531446479478&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,348 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r497539031-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>107451</t>
+  </si>
+  <si>
+    <t>497539031</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Good room, good price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a pilot car driver and have a budget. I use CLC so was deciding between the La Quinta that was $15.00 higher and this one. I made the right choice. The rooms are a little small but that doesn't matter to me for one night. Front desk lady was great. I'm in this area often and this will be my go to place from now on. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r496957275-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>496957275</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truck driver </t>
+  </si>
+  <si>
+    <t>Awesome! The customer service here is unbelievable. The owner was very very nice. The lady at the desk Debbie was extremely nice also. There's motel is very clean very updated and definitely One that I will be back to!! it is hard to find people with such a good personality. Thank y'all so much for making my stay so good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r478544156-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>478544156</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Needs renovation</t>
+  </si>
+  <si>
+    <t>When I originally booked this hotel, it was because I had trust in the brand.  The price quoted was $89 per night,which was a very low price but the pictures on the website showed the rooms to be pleasant and clean.  I failed to check my confirmation to see that I was actually charged $149 due to high room demand that week-end.  This hotel looks fine in the lobby but the rooms are tiny, the shower needed the caulking replaced due to the mildew that had accumulated through repeated uses and the toilet failed to flush without removing the tank lid. Maybe the normal thing in Baytown is to provide 12 x 12 sleeping pillows as long as they give you 4.  Although we made do, this wasn't what I expected.  The linens were clean but worn.  Through the years we have stayed at many hotel chains and come to expect high quality.  Quality Inn is a budget hotel but has always met expectations in the past.  For the jacked up price, this was quite a disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I originally booked this hotel, it was because I had trust in the brand.  The price quoted was $89 per night,which was a very low price but the pictures on the website showed the rooms to be pleasant and clean.  I failed to check my confirmation to see that I was actually charged $149 due to high room demand that week-end.  This hotel looks fine in the lobby but the rooms are tiny, the shower needed the caulking replaced due to the mildew that had accumulated through repeated uses and the toilet failed to flush without removing the tank lid. Maybe the normal thing in Baytown is to provide 12 x 12 sleeping pillows as long as they give you 4.  Although we made do, this wasn't what I expected.  The linens were clean but worn.  Through the years we have stayed at many hotel chains and come to expect high quality.  Quality Inn is a budget hotel but has always met expectations in the past.  For the jacked up price, this was quite a disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r466073328-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>466073328</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>Good value for the $ and convenient access to I-10. In addition, the front desk employee (Krystal) was very pleasant and helpful in accommodating me.This property is okay. The interior by the front desk and breakfast shows a fairly recent renovation, yet I found my room to be lacking. Krystal originally put me in a non-smoking room on the first floor that the previous occupant left it smelling like a chimney (air freshners were of no use). The second room that she put me in WA slightly better, yet had a faint mildew smell to it. I should've known better upon opening the door- the window was wide open on order to air out the room. I had to borrow a spray from the front desk to spray the room down, which seemed to work. The toilet had mold on the inside of the bowl, which disgusted me. Nonetheless, the bed WA comfortable &amp; clean. Breakfast was so-so with sausage, eggs and bagels.Aside from the marathon sex sessions that were ongoing from the occupants within the rooms on each side of me (quite entertaining) and Krystal's hospitality, this property could be better. The housekeepers really need to step their game up and pay more attention to detail.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Good value for the $ and convenient access to I-10. In addition, the front desk employee (Krystal) was very pleasant and helpful in accommodating me.This property is okay. The interior by the front desk and breakfast shows a fairly recent renovation, yet I found my room to be lacking. Krystal originally put me in a non-smoking room on the first floor that the previous occupant left it smelling like a chimney (air freshners were of no use). The second room that she put me in WA slightly better, yet had a faint mildew smell to it. I should've known better upon opening the door- the window was wide open on order to air out the room. I had to borrow a spray from the front desk to spray the room down, which seemed to work. The toilet had mold on the inside of the bowl, which disgusted me. Nonetheless, the bed WA comfortable &amp; clean. Breakfast was so-so with sausage, eggs and bagels.Aside from the marathon sex sessions that were ongoing from the occupants within the rooms on each side of me (quite entertaining) and Krystal's hospitality, this property could be better. The housekeepers really need to step their game up and pay more attention to detail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r464323360-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>464323360</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Hotel was quiet, clean and convenient.  Bed comfortable, clean and staff nice and helpful, Restaurant next door, didn't have to get back in car. Breakfast was fresh and good with the usual foods. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bijal P, General Manager at Quality Inn, responded to this reviewResponded March 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was quiet, clean and convenient.  Bed comfortable, clean and staff nice and helpful, Restaurant next door, didn't have to get back in car. Breakfast was fresh and good with the usual foods. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r431628528-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>431628528</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stay </t>
+  </si>
+  <si>
+    <t>This is the 2nd or 3rd time I have stayed here, as the other times it was a good stay the room was clean and comfortable with a fridge and microwave. I didn't try the breakfast, but everything else was fine. I recommend this motel MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Bijal P, Manager at Quality Inn, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>This is the 2nd or 3rd time I have stayed here, as the other times it was a good stay the room was clean and comfortable with a fridge and microwave. I didn't try the breakfast, but everything else was fine. I recommend this motel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r382601259-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>382601259</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great room!</t>
+  </si>
+  <si>
+    <t>As an OTR truck driver, I had to wait to get my trailer repaired before I could get rolling. So, I got a room in the back of the hotel over Memorial Day weekend. Even though it was over the pool, it was relatively quiet and very comfortable. I had a little difficulty getting off the bed because it was so soft and plushy!! It felt like I was sleeping on a marshmallow. The bathroom door was a sliding door and my only problem. I accidentally pushed it too far into the wall and couldn't get the silly thing back out again. But, a call to the front desk fixed that quickly. Apparently, it's a common problem. One other piece of advise, don't put things that need to stay frozen in the little freezer part. It's just a shelf and not enclosed so it can't keep the proper temperature. I learned that the hard way with an ice cream bar I had bought from the front desk. Luckily, they let me get another one because the silly thing had melted before I could eat it. There is food within walking distance, the closest being Outback and McDonalds. Across the street is a Panda Express and there's more food if you go under the highway bridge like a Jack in the Box, Whataburger and a few others. It's a bit far to walk but doable, just watch the traffic, lol. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Bijal P, Manager at Quality Inn, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>As an OTR truck driver, I had to wait to get my trailer repaired before I could get rolling. So, I got a room in the back of the hotel over Memorial Day weekend. Even though it was over the pool, it was relatively quiet and very comfortable. I had a little difficulty getting off the bed because it was so soft and plushy!! It felt like I was sleeping on a marshmallow. The bathroom door was a sliding door and my only problem. I accidentally pushed it too far into the wall and couldn't get the silly thing back out again. But, a call to the front desk fixed that quickly. Apparently, it's a common problem. One other piece of advise, don't put things that need to stay frozen in the little freezer part. It's just a shelf and not enclosed so it can't keep the proper temperature. I learned that the hard way with an ice cream bar I had bought from the front desk. Luckily, they let me get another one because the silly thing had melted before I could eat it. There is food within walking distance, the closest being Outback and McDonalds. Across the street is a Panda Express and there's more food if you go under the highway bridge like a Jack in the Box, Whataburger and a few others. It's a bit far to walk but doable, just watch the traffic, lol. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r362408231-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>362408231</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Not clean enough to suit me</t>
+  </si>
+  <si>
+    <t>I am a Choice Platinum Member.  This hotel was easy to find and the noise did not bother me.  They have done some nice renovations.  My room was attractive and the bedding and curtains were new.  The doors to the bathroom were sliders and the paint was chipped most everywhere.  When I entered the shower, there was mold growing all up and down.  I took a washcloth and wiped the mold off readily.  When I checked out, I took it to the front desk.  She looked and me with an EEEWWWW look.  She took a tissue and grasped the washcloth from me and then passed me some hand sanitizer.  Hopefully, they will complete the remodel and take care of the bathrooms.  The check in clerk was very friendly and I felt bad complaining but they really needed to know.  Surprised they did not offer me a discount on my room but that was not discussed.  She did write the room number down and placed it with the moldy wash cloth.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I am a Choice Platinum Member.  This hotel was easy to find and the noise did not bother me.  They have done some nice renovations.  My room was attractive and the bedding and curtains were new.  The doors to the bathroom were sliders and the paint was chipped most everywhere.  When I entered the shower, there was mold growing all up and down.  I took a washcloth and wiped the mold off readily.  When I checked out, I took it to the front desk.  She looked and me with an EEEWWWW look.  She took a tissue and grasped the washcloth from me and then passed me some hand sanitizer.  Hopefully, they will complete the remodel and take care of the bathrooms.  The check in clerk was very friendly and I felt bad complaining but they really needed to know.  Surprised they did not offer me a discount on my room but that was not discussed.  She did write the room number down and placed it with the moldy wash cloth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r340812723-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>340812723</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Noisey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small but nice...rooms were clean and staff very friendly. ...the noise is definitely a factor here...good in a pinch but when I'm paying to sleep...I want to sleep not lay awake all night listening to all the vehicles on the freeway...for this reason alone I probably won't be back </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r309602462-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>309602462</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a very clean hotel. The staff were friendly &amp; helpful. Room was cleaned well. I would have gave it 5 stars but the room had some small issues ex: shower didn't drain well, some paint &amp; plaster needed done in bathroom, mattress had some stains. Not really a major deal. All in all a great place to stay. Breakfast was fine for complimentary. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r300316619-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>300316619</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Great Price, nice safe area.</t>
+  </si>
+  <si>
+    <t>Small room, has a nice walk in shower. Room was pretty clean, loved the indoor laundry room, worked out great. They also sell laundry soap, saved me a trip and time. Front desk was very helpful. I would def. stay there again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r285528112-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>285528112</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>small but nice</t>
+  </si>
+  <si>
+    <t>The rooms are small but nice. My shower had a drip so you heard it all night. The bathroom had a shower no tub. The staff were all really nice and helpful. Great value for the price. Near shopping and lots of places to eat.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r201113221-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>201113221</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Lovely place to stay</t>
+  </si>
+  <si>
+    <t>Its a nice hotel to stay. Food is good and so is service. Nice and clean ambient. Staff is very helpful. Although the place is very far off from Airport, but it does not hurt much. I had a very pleasant stay</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r184435211-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>184435211</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>When I come down this one of two places I stay at. This pla,ce is very clean,  and real friendly. It is worth the stay and I will always stay at this place. And I do recommend it to others. It is close to eating places,  a mall with a more theater.  And other things to do.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r180110338-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>180110338</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Clean and budget friendly</t>
+  </si>
+  <si>
+    <t>Booked a last minute king bed room for $80.  Friendly front desk, room was clean and really enjoy the stand up shower.  Although the sliding door between the bedroom and bath area sticks a bit the overall room was very nice.  Bed was comfortable and I had a good nights sleep. I cannot review the tv choices since the cable was out but I am not going to count this against the hotel. Those things happen. Overall a comfortable place to stay.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r136054838-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>136054838</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Good place for an overnight stay</t>
+  </si>
+  <si>
+    <t>I was hesistant about making a reservation for this hotel because there were no reviews. My husband stated that it was probably a new establishment. Well, It is not new.I am still not reasure why there have been no reviews.  Check in was quick.  We got one of those carts to place our luggage on to go to the room.  I had 2 keys, one did not work, but once I opened the door, we could not even get our cart inside the room.  It was difficult to get ourselves in the room. It is a small room with too much furniture.  A Chair an ottoman were in the walkway.  The room looked nice upon entering.  I did notice some things that were not favorable to me.  1.  stains on the ottoman, 2. peeling paint over the airconditioner, mold behind the toliet, dirty door to the bathroom. My son pointed out the lack of a smoke detector because of the whole that is in the ceiling. They have an outdoor pool that is 3ft on both ends and goes to 5ft in the middle. We did not swim until 8PM so there was no need to lounge around the pool, but there is room for that as well as tables available.  Pool towels ( hand towels) were provided. They were very small, but so were the room towels, oh well.  Micorwave, refrigerator was avaiable in the room. Air conditioning worked...I was hesistant about making a reservation for this hotel because there were no reviews. My husband stated that it was probably a new establishment. Well, It is not new.I am still not reasure why there have been no reviews.  Check in was quick.  We got one of those carts to place our luggage on to go to the room.  I had 2 keys, one did not work, but once I opened the door, we could not even get our cart inside the room.  It was difficult to get ourselves in the room. It is a small room with too much furniture.  A Chair an ottoman were in the walkway.  The room looked nice upon entering.  I did notice some things that were not favorable to me.  1.  stains on the ottoman, 2. peeling paint over the airconditioner, mold behind the toliet, dirty door to the bathroom. My son pointed out the lack of a smoke detector because of the whole that is in the ceiling. They have an outdoor pool that is 3ft on both ends and goes to 5ft in the middle. We did not swim until 8PM so there was no need to lounge around the pool, but there is room for that as well as tables available.  Pool towels ( hand towels) were provided. They were very small, but so were the room towels, oh well.  Micorwave, refrigerator was avaiable in the room. Air conditioning worked very well, beds were comfy.  I would stay at this hotel again because I did not see anything that was over the top disgusting. The cleanliness of the hotel is probably like most of our homes that have not had a deep cleaning.  I was a little concerned about no smoke I detector in the room, their was evidence of sprinklers in the room, the question is, Do they work?Check out was quick.  Outback Steakhouse next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I was hesistant about making a reservation for this hotel because there were no reviews. My husband stated that it was probably a new establishment. Well, It is not new.I am still not reasure why there have been no reviews.  Check in was quick.  We got one of those carts to place our luggage on to go to the room.  I had 2 keys, one did not work, but once I opened the door, we could not even get our cart inside the room.  It was difficult to get ourselves in the room. It is a small room with too much furniture.  A Chair an ottoman were in the walkway.  The room looked nice upon entering.  I did notice some things that were not favorable to me.  1.  stains on the ottoman, 2. peeling paint over the airconditioner, mold behind the toliet, dirty door to the bathroom. My son pointed out the lack of a smoke detector because of the whole that is in the ceiling. They have an outdoor pool that is 3ft on both ends and goes to 5ft in the middle. We did not swim until 8PM so there was no need to lounge around the pool, but there is room for that as well as tables available.  Pool towels ( hand towels) were provided. They were very small, but so were the room towels, oh well.  Micorwave, refrigerator was avaiable in the room. Air conditioning worked...I was hesistant about making a reservation for this hotel because there were no reviews. My husband stated that it was probably a new establishment. Well, It is not new.I am still not reasure why there have been no reviews.  Check in was quick.  We got one of those carts to place our luggage on to go to the room.  I had 2 keys, one did not work, but once I opened the door, we could not even get our cart inside the room.  It was difficult to get ourselves in the room. It is a small room with too much furniture.  A Chair an ottoman were in the walkway.  The room looked nice upon entering.  I did notice some things that were not favorable to me.  1.  stains on the ottoman, 2. peeling paint over the airconditioner, mold behind the toliet, dirty door to the bathroom. My son pointed out the lack of a smoke detector because of the whole that is in the ceiling. They have an outdoor pool that is 3ft on both ends and goes to 5ft in the middle. We did not swim until 8PM so there was no need to lounge around the pool, but there is room for that as well as tables available.  Pool towels ( hand towels) were provided. They were very small, but so were the room towels, oh well.  Micorwave, refrigerator was avaiable in the room. Air conditioning worked very well, beds were comfy.  I would stay at this hotel again because I did not see anything that was over the top disgusting. The cleanliness of the hotel is probably like most of our homes that have not had a deep cleaning.  I was a little concerned about no smoke I detector in the room, their was evidence of sprinklers in the room, the question is, Do they work?Check out was quick.  Outback Steakhouse next door.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +883,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +915,1045 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_521.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_521.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r576058667-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>107451</t>
+  </si>
+  <si>
+    <t>576058667</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Great Experience from start to finish</t>
+  </si>
+  <si>
+    <t>Excellent breakfast with fresh eggs right out of the shell. Although the hotel is a bit older it is well maintained and the rooms and bed made for a comfortable stay. All of the employees had an "I care" attitude and upon checkout when asked how our stay was the lady at the front desk added with a smile, "well we certainly strive to make this a place where we and our family would want to stay". Kudos to the management for keeping their employees happy because it certainly shows.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r556166660-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>556166660</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Good Motel to stay at. .</t>
+  </si>
+  <si>
+    <t>Iv'e been at this motel 6 times over the last year.  Staff is friendly &amp; rooms are in good condition. Several nice restaurants within walking distance as well as a connivence store.There are large grocery stores &amp; other major retail outlets within a few miles of this motel.Good place to stay.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r497539031-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>107451</t>
-  </si>
-  <si>
     <t>497539031</t>
   </si>
   <si>
@@ -177,9 +216,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r496957275-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -213,6 +249,45 @@
     <t>When I originally booked this hotel, it was because I had trust in the brand.  The price quoted was $89 per night,which was a very low price but the pictures on the website showed the rooms to be pleasant and clean.  I failed to check my confirmation to see that I was actually charged $149 due to high room demand that week-end.  This hotel looks fine in the lobby but the rooms are tiny, the shower needed the caulking replaced due to the mildew that had accumulated through repeated uses and the toilet failed to flush without removing the tank lid. Maybe the normal thing in Baytown is to provide 12 x 12 sleeping pillows as long as they give you 4.  Although we made do, this wasn't what I expected.  The linens were clean but worn.  Through the years we have stayed at many hotel chains and come to expect high quality.  Quality Inn is a budget hotel but has always met expectations in the past.  For the jacked up price, this was quite a disappointment.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r475524338-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>475524338</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Visiting friends</t>
+  </si>
+  <si>
+    <t>Good clean place staff was good near restaurants. Rooms are a little small is the only ding i gave it. Convenience store half a block away and the mall across the road. Very quiet also the bed was a little soft for me but i like a very firm mattress so i don't hols that against them.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r470724623-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>470724623</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Simple and inexpensive</t>
+  </si>
+  <si>
+    <t>Location: Close to Interstate Highway 10.Room: Nearly clean, longer not renovated.Room service: During my 3 weeks stay it happened 3 or 4 times, the room was not cleaned. The bed was not made, trashcan not empty, no fresh towels ...Breakfast: Toast, cream cheese and butter, scrambled eggs, sausages, muesli with milk, cake and waffles, juice and coffee.All in all: ok for this price.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r466073328-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -228,9 +303,6 @@
     <t>Good value for the $ and convenient access to I-10. In addition, the front desk employee (Krystal) was very pleasant and helpful in accommodating me.This property is okay. The interior by the front desk and breakfast shows a fairly recent renovation, yet I found my room to be lacking. Krystal originally put me in a non-smoking room on the first floor that the previous occupant left it smelling like a chimney (air freshners were of no use). The second room that she put me in WA slightly better, yet had a faint mildew smell to it. I should've known better upon opening the door- the window was wide open on order to air out the room. I had to borrow a spray from the front desk to spray the room down, which seemed to work. The toilet had mold on the inside of the bowl, which disgusted me. Nonetheless, the bed WA comfortable &amp; clean. Breakfast was so-so with sausage, eggs and bagels.Aside from the marathon sex sessions that were ongoing from the occupants within the rooms on each side of me (quite entertaining) and Krystal's hospitality, this property could be better. The housekeepers really need to step their game up and pay more attention to detail.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Good value for the $ and convenient access to I-10. In addition, the front desk employee (Krystal) was very pleasant and helpful in accommodating me.This property is okay. The interior by the front desk and breakfast shows a fairly recent renovation, yet I found my room to be lacking. Krystal originally put me in a non-smoking room on the first floor that the previous occupant left it smelling like a chimney (air freshners were of no use). The second room that she put me in WA slightly better, yet had a faint mildew smell to it. I should've known better upon opening the door- the window was wide open on order to air out the room. I had to borrow a spray from the front desk to spray the room down, which seemed to work. The toilet had mold on the inside of the bowl, which disgusted me. Nonetheless, the bed WA comfortable &amp; clean. Breakfast was so-so with sausage, eggs and bagels.Aside from the marathon sex sessions that were ongoing from the occupants within the rooms on each side of me (quite entertaining) and Krystal's hospitality, this property could be better. The housekeepers really need to step their game up and pay more attention to detail.More</t>
   </si>
   <si>
@@ -291,6 +363,54 @@
     <t>This is the 2nd or 3rd time I have stayed here, as the other times it was a good stay the room was clean and comfortable with a fridge and microwave. I didn't try the breakfast, but everything else was fine. I recommend this motel More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r428724076-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>428724076</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Overpriced for the quality</t>
+  </si>
+  <si>
+    <t>My family had been traveling for over 20 hours and realized we weren't going to make the last two hours of our drive home.  We stopped at the first place we found, which was this Quality Inn.  We were able to get a room with two reasonably comfortable beds, which was really all we needed.  The breakfast area was clean and neat with a reasonable selection of food.  But considering the price was over $100 I would have expected a little more than what we got in the room.  The room smelled strongly of food and urine.  The beds were doubles, vs. queens, and the comforters were of the style that leave you wondering when they were last washed.  And as mentioned by previous reviews the sliding bathroom door was badly scratched.  The sink faucet barely reached over the sink such that even my children, with small hands, complained about how hard it was to wash their hands. So with the exception of the urine smell, which I assume is unique to the room we were in, these are things I could live with for the right price.  It felt like were were in a Rodeway Inn vs. Quality Inn (yes we have stayed in both).MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My family had been traveling for over 20 hours and realized we weren't going to make the last two hours of our drive home.  We stopped at the first place we found, which was this Quality Inn.  We were able to get a room with two reasonably comfortable beds, which was really all we needed.  The breakfast area was clean and neat with a reasonable selection of food.  But considering the price was over $100 I would have expected a little more than what we got in the room.  The room smelled strongly of food and urine.  The beds were doubles, vs. queens, and the comforters were of the style that leave you wondering when they were last washed.  And as mentioned by previous reviews the sliding bathroom door was badly scratched.  The sink faucet barely reached over the sink such that even my children, with small hands, complained about how hard it was to wash their hands. So with the exception of the urine smell, which I assume is unique to the room we were in, these are things I could live with for the right price.  It felt like were were in a Rodeway Inn vs. Quality Inn (yes we have stayed in both).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r387904423-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>387904423</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Perfect for Me</t>
+  </si>
+  <si>
+    <t>After a long drive toward home from a business trip to deep South Texas, I just had to shut it down. I picked the Quality Inn, never having stayed at this particular motel, knowing/expecting it to be good quality, clean, and well-priced. This motel was all of those things and the staff was particularly courteous even though I arrived late and without a reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Bijal P, General Manager at Quality Inn, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>After a long drive toward home from a business trip to deep South Texas, I just had to shut it down. I picked the Quality Inn, never having stayed at this particular motel, knowing/expecting it to be good quality, clean, and well-priced. This motel was all of those things and the staff was particularly courteous even though I arrived late and without a reservation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r382601259-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -360,6 +480,45 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r334902225-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>334902225</t>
+  </si>
+  <si>
+    <t>12/25/2015</t>
+  </si>
+  <si>
+    <t>Loved My Stop, Hated the Windows</t>
+  </si>
+  <si>
+    <t>In my experience, Quality Inns aren't always the nicest of hotels -- even among the Choice Hotel line. While you wouldn't call this one fancy, it was very easy to access, close to the interstate and quite clean. The cable worked without static or delay. The bed was clean and comfortable.The staff were awesome. I'm moving and I'm hauling a beautiful classic motorcycle uncovered on a short flatbed. Understandably, I'm paranoid about it. They invited me to park the trailer underneath the overhang in front of the front doors, so they could keep an eye on it for me. I can't tell you what a relief this was for me and what regard I have for them for doing so and gladly.My only hangup was that I could hear the trucks on the interstate pretty easily and I woke earlier than I wanted. Granted, there are other factors as to why I was sleeping light that night, but the noise was still noticeable. I would recommend them to thicken the windows for noise, but otherwise it was a fantastic stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>In my experience, Quality Inns aren't always the nicest of hotels -- even among the Choice Hotel line. While you wouldn't call this one fancy, it was very easy to access, close to the interstate and quite clean. The cable worked without static or delay. The bed was clean and comfortable.The staff were awesome. I'm moving and I'm hauling a beautiful classic motorcycle uncovered on a short flatbed. Understandably, I'm paranoid about it. They invited me to park the trailer underneath the overhang in front of the front doors, so they could keep an eye on it for me. I can't tell you what a relief this was for me and what regard I have for them for doing so and gladly.My only hangup was that I could hear the trucks on the interstate pretty easily and I woke earlier than I wanted. Granted, there are other factors as to why I was sleeping light that night, but the noise was still noticeable. I would recommend them to thicken the windows for noise, but otherwise it was a fantastic stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r327496756-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>327496756</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Not horrible but has some issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're in the hotel as I write and although it's not a bad stay for the price, there's quite a few issues. The shower light is leaking water and the ceiling near it is peeling. The bed is pretty comfy for an inner spring. The room smells like someone may have sneaked a smoke but this isn't to be held against the hotel, it's the fault of the inconsiderate smoker! The TV works fine. The road noise is a little loud but it's not a shock since we're just off the interstate. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r309602462-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -393,9 +552,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r285528112-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -414,6 +570,42 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r259864755-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>259864755</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>overnight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for an overnight trip recently. Check in was easy....no small talk from the clerk. Oh well. We are a family of 4 &amp; I must say these beds are small and uncomfortable. On the plus side you have easy access to I 10 and Garth road, which is where all the shopping stores and eateries are. The new Buccees is a short 5 minute drive. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r215620591-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>215620591</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Awesome Quality Inn</t>
+  </si>
+  <si>
+    <t>Quality Inns seem to run the gamut from nice to rough; this one was definitely among the better properties in the chain. It's obviously an old Sleep Inn, with the big staircase in the lobby and the round shower stalls. It's been nicely redone; this isn't the case of a hotel dropping to a lower brand to save money and squeeze the last life out of old beds and furniture. Everything was new and clean (even the stairwells). The pool was saltwater, not chlorine, but seemed very clean and well-kept. There is even a small picnic area in the back. I would highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r201113221-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -432,9 +624,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r184435211-Quality_Inn-Baytown_Texas.html</t>
   </si>
   <si>
@@ -469,6 +658,45 @@
   </si>
   <si>
     <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r156536894-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>156536894</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>It was good stay!</t>
+  </si>
+  <si>
+    <t>Yes, I would agree with most of the other reviewers about this place. Outback steakhouse is right next door and the hotel is facing I-10.  The road to the hotel is one way street Room looked just like all other remodeled hotels with granite bathroom counter top.  Bed was comfortable and pillows were small but fluffy. Breakfast was good with many choices including yogurt but typical chain hotel breakfast.  It had flavored coffee creamers which was very nice and coffee was decent.  I would say Quality Inn is usually pretty good over all from my experience.There are many places to eat within 5 min. drive if you don't care to eat next door.  Nothing very impressive but nothing to complain for just 1 night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Yes, I would agree with most of the other reviewers about this place. Outback steakhouse is right next door and the hotel is facing I-10.  The road to the hotel is one way street Room looked just like all other remodeled hotels with granite bathroom counter top.  Bed was comfortable and pillows were small but fluffy. Breakfast was good with many choices including yogurt but typical chain hotel breakfast.  It had flavored coffee creamers which was very nice and coffee was decent.  I would say Quality Inn is usually pretty good over all from my experience.There are many places to eat within 5 min. drive if you don't care to eat next door.  Nothing very impressive but nothing to complain for just 1 night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r156252079-Quality_Inn-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>156252079</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Like New</t>
+  </si>
+  <si>
+    <t>All inside corridors so cart had to be used to get baggage inside. Check in was quick as was check out. Upon leaving when starting the car I received an email (Droid) with summary of charges. Neat. Breakfast was excellent. Everything looked almost new to me. A couple of concerns were 1. The flip lock on the door didn't work but the bolt lock did. The smoke detector in the room was missing which we reported to the clerk. She made a note of it.? Overall the one night stay was great.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d107451-r136054838-Quality_Inn-Baytown_Texas.html</t>
@@ -1024,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1034,10 +1262,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1084,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
@@ -1092,9 +1324,13 @@
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1117,7 +1353,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1126,22 +1362,26 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1170,7 +1410,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1179,22 +1419,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1211,7 +1451,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1236,47 +1476,35 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
-        <v>80</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1292,7 +1520,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1301,25 +1529,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
         <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1330,14 +1558,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" t="s">
-        <v>89</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1577,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1362,43 +1586,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" t="s">
-        <v>99</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1414,7 +1638,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1423,45 +1647,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1477,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1486,39 +1704,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1534,7 +1760,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1543,22 +1769,26 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1568,10 +1798,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1587,7 +1821,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1596,37 +1830,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1634,7 +1868,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1650,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1659,41 +1893,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
-      </c>
       <c r="O13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
       <c r="Y13" t="s">
         <v>130</v>
       </c>
@@ -1711,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1720,49 +1960,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>133</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>134</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>135</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>136</v>
       </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>137</v>
       </c>
-      <c r="O14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -1778,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1787,39 +2021,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -1835,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1844,49 +2084,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -1902,7 +2132,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1911,41 +2141,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1953,7 +2179,751 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29683</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" t="s">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s">
+        <v>231</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
